--- a/vinegre.xlsx
+++ b/vinegre.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
   <si>
     <t>Asm</t>
   </si>
@@ -498,11 +498,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -541,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f>VLOOKUP(B2,WB,2,FALSE)&amp;TEXT(C2,"000")</f>
+        <f t="shared" ref="D2:D49" si="0">VLOOKUP(B2,WB,2,FALSE)&amp;TEXT(C2,"000")</f>
         <v>5013</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -560,11 +558,11 @@
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f>VLOOKUP(B3,WB,2,FALSE)&amp;TEXT(C3,"000")</f>
-        <v>006</v>
+        <f t="shared" si="0"/>
+        <v>999</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>19</v>
@@ -578,18 +576,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A41" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4">
-        <v>300</v>
+      <c r="C4" s="2">
+        <f>A52</f>
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f>VLOOKUP(B4,WB,2,FALSE)&amp;TEXT(C4,"000")</f>
-        <v>13300</v>
+        <f t="shared" si="0"/>
+        <v>13050</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>20</v>
@@ -600,18 +599,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
-        <v>310</v>
+      <c r="C5" s="2">
+        <f>A57</f>
+        <v>55</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f>VLOOKUP(B5,WB,2,FALSE)&amp;TEXT(C5,"000")</f>
-        <v>1310</v>
+        <f t="shared" si="0"/>
+        <v>1055</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -635,7 +635,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f>VLOOKUP(B6,WB,2,FALSE)&amp;TEXT(C6,"000")</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -650,7 +650,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -660,7 +660,7 @@
         <v>126</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f>VLOOKUP(B7,WB,2,FALSE)&amp;TEXT(C7,"000")</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -675,7 +675,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f>VLOOKUP(B8,WB,2,FALSE)&amp;TEXT(C8,"000")</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -700,7 +700,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f>VLOOKUP(B9,WB,2,FALSE)&amp;TEXT(C9,"000")</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -725,18 +725,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
-        <v>500</v>
+      <c r="C10" s="2">
+        <f>A72</f>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f>VLOOKUP(B10,WB,2,FALSE)&amp;TEXT(C10,"000")</f>
-        <v>4500</v>
+        <f t="shared" si="0"/>
+        <v>4070</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>27</v>
@@ -750,18 +751,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C4</f>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f>VLOOKUP(B11,WB,2,FALSE)&amp;TEXT(C11,"000")</f>
-        <v>000</v>
+        <f t="shared" si="0"/>
+        <v>2050</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -772,7 +774,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -782,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f>VLOOKUP(B12,WB,2,FALSE)&amp;TEXT(C12,"000")</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
       <c r="L12" t="s">
@@ -794,7 +796,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f>VLOOKUP(B13,WB,2,FALSE)&amp;TEXT(C13,"000")</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
       <c r="L13" t="s">
@@ -816,7 +818,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f>VLOOKUP(B14,WB,2,FALSE)&amp;TEXT(C14,"000")</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
       <c r="L14" t="s">
@@ -838,7 +840,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -849,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f>VLOOKUP(B15,WB,2,FALSE)&amp;TEXT(C15,"000")</f>
+        <f t="shared" si="0"/>
         <v>9001</v>
       </c>
       <c r="L15" t="s">
@@ -861,7 +863,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -872,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f>VLOOKUP(B16,WB,2,FALSE)&amp;TEXT(C16,"000")</f>
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -881,7 +883,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -892,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f>VLOOKUP(B17,WB,2,FALSE)&amp;TEXT(C17,"000")</f>
+        <f t="shared" si="0"/>
         <v>4016</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -901,18 +903,18 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4">
-        <v>300</v>
+        <v>999</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f>VLOOKUP(B18,WB,2,FALSE)&amp;TEXT(C18,"000")</f>
-        <v>13300</v>
+        <f t="shared" si="0"/>
+        <v>13999</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -920,7 +922,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -931,7 +933,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f>VLOOKUP(B19,WB,2,FALSE)&amp;TEXT(C19,"000")</f>
+        <f t="shared" si="0"/>
         <v>1016</v>
       </c>
       <c r="H19" t="s">
@@ -940,7 +942,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -951,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="6" t="str">
-        <f>VLOOKUP(B20,WB,2,FALSE)&amp;TEXT(C20,"000")</f>
+        <f t="shared" si="0"/>
         <v>3002</v>
       </c>
       <c r="H20" t="s">
@@ -960,7 +962,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -971,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f>VLOOKUP(B21,WB,2,FALSE)&amp;TEXT(C21,"000")</f>
+        <f t="shared" si="0"/>
         <v>4001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -988,13 +990,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="6" t="str">
-        <f>VLOOKUP(B22,WB,2,FALSE)&amp;TEXT(C22,"000")</f>
+        <f t="shared" si="0"/>
         <v>8001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1005,312 +1007,907 @@
         <v>3</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f>VLOOKUP(B23,WB,2,FALSE)&amp;TEXT(C23,"000")</f>
+        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <f>A31</f>
-        <v>29</v>
+        <f>A35</f>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="str">
-        <f>VLOOKUP(B24,WB,2,FALSE)&amp;TEXT(C24,"000")</f>
-        <v>4029</v>
+        <f t="shared" si="0"/>
+        <v>4033</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <f>A46</f>
+        <v>44</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" ref="D25" si="2">VLOOKUP(B25,WB,2,FALSE)&amp;TEXT(C25,"000")</f>
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
+        <f>A11</f>
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <f>A36</f>
+        <v>34</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
         <f>A10</f>
         <v>8</v>
       </c>
-      <c r="D25" s="6" t="str">
-        <f>VLOOKUP(B25,WB,2,FALSE)&amp;TEXT(C25,"000")</f>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2">
-        <f>A41</f>
-        <v>39</v>
-      </c>
-      <c r="D26" s="6" t="str">
-        <f>VLOOKUP(B26,WB,2,FALSE)&amp;TEXT(C26,"000")</f>
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2">
-        <f>A31</f>
-        <v>29</v>
-      </c>
-      <c r="D27" s="6" t="str">
-        <f>VLOOKUP(B27,WB,2,FALSE)&amp;TEXT(C27,"000")</f>
-        <v>5029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2">
-        <f>A31</f>
-        <v>29</v>
-      </c>
-      <c r="D28" s="6" t="str">
-        <f>VLOOKUP(B28,WB,2,FALSE)&amp;TEXT(C28,"000")</f>
-        <v>7029</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f>A28+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
-        <f>A32</f>
-        <v>30</v>
+        <f>A45</f>
+        <v>43</v>
       </c>
       <c r="D29" s="6" t="str">
-        <f>VLOOKUP(B29,WB,2,FALSE)&amp;TEXT(C29,"000")</f>
-        <v>7030</v>
+        <f t="shared" si="0"/>
+        <v>4043</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f>A29+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>38</v>
+        <f>A35</f>
+        <v>33</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f>VLOOKUP(B30,WB,2,FALSE)&amp;TEXT(C30,"000")</f>
-        <v>7038</v>
+        <f t="shared" si="0"/>
+        <v>5033</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f>A30+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4">
-        <f>C5</f>
-        <v>310</v>
+        <v>13</v>
+      </c>
+      <c r="C31" s="2">
+        <f>A35</f>
+        <v>33</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f>VLOOKUP(B31,WB,2,FALSE)&amp;TEXT(C31,"000")</f>
-        <v>1310</v>
+        <f t="shared" si="0"/>
+        <v>7033</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2">
+        <f>A36</f>
+        <v>34</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f>A32+1</f>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2">
+        <f>A42</f>
+        <v>40</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f>A33+1</f>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2">
+        <f>A45</f>
+        <v>43</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f t="shared" ref="D34" si="3">VLOOKUP(B34,WB,2,FALSE)&amp;TEXT(C34,"000")</f>
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f>A34+1</f>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4">
+        <v>999</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="4">
-        <f>C4</f>
-        <v>300</v>
-      </c>
-      <c r="D32" s="6" t="str">
-        <f>VLOOKUP(B32,WB,2,FALSE)&amp;TEXT(C32,"000")</f>
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C36" s="4">
+        <v>999</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2999</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C37" s="2">
         <f>A6</f>
         <v>4</v>
       </c>
-      <c r="D33" s="6" t="str">
-        <f>VLOOKUP(B33,WB,2,FALSE)&amp;TEXT(C33,"000")</f>
+      <c r="D37" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>3004</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C38" s="2">
         <f>A8</f>
         <v>6</v>
       </c>
-      <c r="D34" s="6" t="str">
-        <f>VLOOKUP(B34,WB,2,FALSE)&amp;TEXT(C34,"000")</f>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>4006</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C39" s="2">
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="D35" s="6" t="str">
-        <f>VLOOKUP(B35,WB,2,FALSE)&amp;TEXT(C35,"000")</f>
+      <c r="D39" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>4007</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C40" s="2">
         <f>A7</f>
         <v>5</v>
       </c>
-      <c r="D36" s="6" t="str">
-        <f>VLOOKUP(B36,WB,2,FALSE)&amp;TEXT(C36,"000")</f>
+      <c r="D40" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>3005</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="2">
-        <f>C34</f>
-        <v>6</v>
-      </c>
-      <c r="D37" s="6" t="str">
-        <f>VLOOKUP(B37,WB,2,FALSE)&amp;TEXT(C37,"000")</f>
-        <v>4006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2">
-        <f>C37</f>
-        <v>6</v>
-      </c>
-      <c r="D38" s="6" t="str">
-        <f>VLOOKUP(B38,WB,2,FALSE)&amp;TEXT(C38,"000")</f>
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2">
-        <f>C35</f>
-        <v>7</v>
-      </c>
-      <c r="D39" s="6" t="str">
-        <f>VLOOKUP(B39,WB,2,FALSE)&amp;TEXT(C39,"000")</f>
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2">
-        <f>C39</f>
-        <v>7</v>
-      </c>
-      <c r="D40" s="6" t="str">
-        <f>VLOOKUP(B40,WB,2,FALSE)&amp;TEXT(C40,"000")</f>
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
+        <f>A8</f>
+        <v>6</v>
+      </c>
+      <c r="D41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4006</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
+        <f>A8</f>
+        <v>6</v>
+      </c>
+      <c r="D42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>6006</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="D43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4007</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="D44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4">
         <v>999</v>
       </c>
-      <c r="D41" s="6" t="str">
-        <f>VLOOKUP(B41,WB,2,FALSE)&amp;TEXT(C41,"000")</f>
+      <c r="D45" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>4999</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>999</v>
+      </c>
+      <c r="D46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6" t="str">
+        <f t="shared" ref="D50:D82" si="4">VLOOKUP(B50,WB,2,FALSE)&amp;TEXT(C50,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4">
+        <v>100</v>
+      </c>
+      <c r="D52" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4">
+        <v>100</v>
+      </c>
+      <c r="D53" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4">
+        <v>101</v>
+      </c>
+      <c r="D54" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4">
+        <v>102</v>
+      </c>
+      <c r="D55" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4">
+        <v>100</v>
+      </c>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="4">
+        <v>101</v>
+      </c>
+      <c r="D58" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4">
+        <v>102</v>
+      </c>
+      <c r="D59" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4">
+        <v>103</v>
+      </c>
+      <c r="D60" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4">
+        <v>110</v>
+      </c>
+      <c r="D61" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4">
+        <v>115</v>
+      </c>
+      <c r="D62" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4">
+        <v>120</v>
+      </c>
+      <c r="D63" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <f t="shared" ref="A68:A82" si="5">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>000</v>
       </c>
     </row>
   </sheetData>

--- a/vinegre.xlsx
+++ b/vinegre.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="59">
   <si>
     <t>Asm</t>
   </si>
@@ -110,6 +110,90 @@
   </si>
   <si>
     <t xml:space="preserve">    -&gt; Index und Offset1 subtrahieren =&gt; Anzahl Zeichen</t>
+  </si>
+  <si>
+    <t>Ende erreicht?</t>
+  </si>
+  <si>
+    <t>Nein, springe zrück</t>
+  </si>
+  <si>
+    <t>Ja, Programm ende</t>
+  </si>
+  <si>
+    <t>nächstes pw zeichen setzen</t>
+  </si>
+  <si>
+    <t>befehl lesen</t>
+  </si>
+  <si>
+    <t>offset subtrahieren</t>
+  </si>
+  <si>
+    <t>Anzahl Buchstaben subtrahieren</t>
+  </si>
+  <si>
+    <t>speichern zu tmp</t>
+  </si>
+  <si>
+    <t>ist schon 0</t>
+  </si>
+  <si>
+    <t>nein, mache weiter</t>
+  </si>
+  <si>
+    <t>ja, tbd</t>
+  </si>
+  <si>
+    <t>zähler zurücksetzen</t>
+  </si>
+  <si>
+    <t>zähler speichern</t>
+  </si>
+  <si>
+    <t>mache weiter bei Frage "Ende erreicht?"</t>
+  </si>
+  <si>
+    <t>Springe zu lader</t>
+  </si>
+  <si>
+    <t>erhöhe buchstaben-taker org</t>
+  </si>
+  <si>
+    <t>erhöhe buchstaben-tester</t>
+  </si>
+  <si>
+    <t>erhöhe speicher-ziel</t>
+  </si>
+  <si>
+    <t>erhöhe test-prüfung</t>
+  </si>
+  <si>
+    <t>Nimm ein Zeichen</t>
+  </si>
+  <si>
+    <t>Addiere PW-Zeichen</t>
+  </si>
+  <si>
+    <t>subtrahiere A-Zeichen</t>
+  </si>
+  <si>
+    <t>subtrahiere Z-Zeichen</t>
+  </si>
+  <si>
+    <t>speichern zu tmp1</t>
+  </si>
+  <si>
+    <t>ist schon 0?</t>
+  </si>
+  <si>
+    <t>nein, überscheibe tmp da über das Ende der Welt hinaus</t>
+  </si>
+  <si>
+    <t>Lade tmp auf jeden Fall wieder</t>
+  </si>
+  <si>
+    <t>Letter in Ziel speichern</t>
   </si>
 </sst>
 </file>
@@ -153,12 +237,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -193,6 +289,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,16 +599,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="3" max="3" width="9.140625" style="4"/>
     <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="58.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -528,7 +631,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -539,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f t="shared" ref="D2:D49" si="0">VLOOKUP(B2,WB,2,FALSE)&amp;TEXT(C2,"000")</f>
+        <f t="shared" ref="D2:D58" si="0">VLOOKUP(B2,WB,2,FALSE)&amp;TEXT(C2,"000")</f>
         <v>5013</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -550,7 +653,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <f>A2+1</f>
         <v>1</v>
       </c>
@@ -575,20 +678,20 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A67" si="1">A3+1</f>
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A92" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <f>A52</f>
-        <v>50</v>
+        <f>A72</f>
+        <v>70</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>13050</v>
+        <v>13070</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>20</v>
@@ -598,7 +701,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -606,12 +709,12 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <f>A57</f>
-        <v>55</v>
+        <f>A82</f>
+        <v>80</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>1055</v>
+        <v>1080</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
@@ -624,7 +727,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -649,7 +752,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -674,7 +777,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -699,7 +802,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -724,7 +827,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -732,12 +835,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <f>A72</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>4070</v>
+        <v>4100</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>27</v>
@@ -750,7 +852,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -759,11 +861,11 @@
       </c>
       <c r="C11" s="2">
         <f>C4</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -773,19 +875,20 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <f>C5</f>
+        <v>80</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
+        <v>6080</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -795,7 +898,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -817,7 +920,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1020,12 +1123,12 @@
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <f>A35</f>
-        <v>33</v>
+        <f>A37</f>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>4033</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1034,15 +1137,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <f>A12</f>
         <v>10</v>
       </c>
-      <c r="C25" s="2">
-        <f>A46</f>
-        <v>44</v>
-      </c>
       <c r="D25" s="6" t="str">
-        <f t="shared" ref="D25" si="2">VLOOKUP(B25,WB,2,FALSE)&amp;TEXT(C25,"000")</f>
-        <v>4044</v>
+        <f t="shared" si="0"/>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1051,83 +1154,83 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <f>A56</f>
+        <v>54</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f t="shared" ref="D26:D27" si="2">VLOOKUP(B26,WB,2,FALSE)&amp;TEXT(C26,"000")</f>
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <f>A56</f>
+        <v>54</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="2">
         <f>A11</f>
         <v>9</v>
       </c>
-      <c r="D26" s="6" t="str">
+      <c r="D28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2">
-        <f>A36</f>
-        <v>34</v>
-      </c>
-      <c r="D27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>4034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C29" s="2">
+        <f>A38</f>
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="2">
         <f>A10</f>
         <v>8</v>
       </c>
-      <c r="D28" s="6" t="str">
+      <c r="D30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2">
-        <f>A45</f>
-        <v>43</v>
-      </c>
-      <c r="D29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>4043</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2">
-        <f>A35</f>
-        <v>33</v>
-      </c>
-      <c r="D30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>5033</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1136,66 +1239,75 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2">
-        <f>A35</f>
-        <v>33</v>
+        <f>A47</f>
+        <v>45</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>7033</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f>A31+1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
-        <f>A36</f>
-        <v>34</v>
+        <f>A37</f>
+        <v>35</v>
       </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>7034</v>
+        <v>5035</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f>A32+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="2">
-        <f>A42</f>
-        <v>40</v>
+        <f>A37</f>
+        <v>35</v>
       </c>
       <c r="D33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>7040</v>
+        <v>7035</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f>A33+1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="2">
-        <f>A45</f>
-        <v>43</v>
+        <f>A44</f>
+        <v>42</v>
       </c>
       <c r="D34" s="6" t="str">
-        <f t="shared" ref="D34" si="3">VLOOKUP(B34,WB,2,FALSE)&amp;TEXT(C34,"000")</f>
-        <v>7043</v>
+        <f t="shared" si="0"/>
+        <v>7042</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,141 +1316,157 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="4">
-        <v>999</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="2">
+        <f>A47</f>
+        <v>45</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>1999</v>
-      </c>
-      <c r="E35"/>
+        <f t="shared" ref="D35" si="3">VLOOKUP(B35,WB,2,FALSE)&amp;TEXT(C35,"000")</f>
+        <v>7045</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="1"/>
+        <f>A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4">
-        <v>999</v>
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <f>A56</f>
+        <v>54</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>2999</v>
-      </c>
-      <c r="E36"/>
+        <f t="shared" ref="D36" si="4">VLOOKUP(B36,WB,2,FALSE)&amp;TEXT(C36,"000")</f>
+        <v>7054</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="1"/>
+        <f>A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4">
+        <v>999</v>
+      </c>
+      <c r="D37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4">
+        <v>999</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2999</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C39" s="2">
         <f>A6</f>
         <v>4</v>
       </c>
-      <c r="D37" s="6" t="str">
+      <c r="D39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3004</v>
       </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="E39" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C40" s="2">
         <f>A8</f>
         <v>6</v>
       </c>
-      <c r="D38" s="6" t="str">
+      <c r="D40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>4006</v>
       </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="E40" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C41" s="2">
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="D39" s="6" t="str">
+      <c r="D41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>4007</v>
       </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <f t="shared" si="1"/>
+      <c r="E41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C42" s="2">
         <f>A7</f>
         <v>5</v>
       </c>
-      <c r="D40" s="6" t="str">
+      <c r="D42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3005</v>
       </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2">
-        <f>A8</f>
-        <v>6</v>
-      </c>
-      <c r="D41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>4006</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2">
-        <f>A8</f>
-        <v>6</v>
-      </c>
-      <c r="D42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>6006</v>
-      </c>
-      <c r="E42"/>
+      <c r="E42" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -1349,64 +1477,75 @@
         <v>10</v>
       </c>
       <c r="C43" s="2">
+        <f>A8</f>
+        <v>6</v>
+      </c>
+      <c r="D43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4006</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
+        <f>A8</f>
+        <v>6</v>
+      </c>
+      <c r="D44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>6006</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2">
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="D43" s="6" t="str">
+      <c r="D45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>4007</v>
       </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="E45" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C46" s="2">
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="D44" s="6" t="str">
+      <c r="D46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="4">
-        <v>999</v>
-      </c>
-      <c r="D45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>4999</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4">
-        <v>999</v>
-      </c>
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>1999</v>
+      <c r="E46" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1415,11 +1554,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C47" s="4">
+        <v>999</v>
       </c>
       <c r="D47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
+        <v>4999</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,485 +1573,859 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C48" s="2">
+        <f>A38</f>
+        <v>36</v>
       </c>
       <c r="D48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(B48,WB,2,FALSE)&amp;TEXT(C48,"000")</f>
+        <v>7036</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <f>A38</f>
+        <v>36</v>
       </c>
       <c r="D49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(B49,WB,2,FALSE)&amp;TEXT(C49,"000")</f>
+        <v>1036</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="2">
+        <f>A11</f>
+        <v>9</v>
       </c>
       <c r="D50" s="6" t="str">
-        <f t="shared" ref="D50:D82" si="4">VLOOKUP(B50,WB,2,FALSE)&amp;TEXT(C50,"000")</f>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(B50,WB,2,FALSE)&amp;TEXT(C50,"000")</f>
+        <v>3009</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C51" s="2">
+        <f>A3</f>
+        <v>1</v>
       </c>
       <c r="D51" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(B51,WB,2,FALSE)&amp;TEXT(C51,"000")</f>
+        <v>3001</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="4">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2">
+        <f>A8</f>
+        <v>6</v>
+      </c>
+      <c r="D52" s="6" t="str">
+        <f>VLOOKUP(B52,WB,2,FALSE)&amp;TEXT(C52,"000")</f>
+        <v>4006</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <f>A8</f>
+        <v>6</v>
+      </c>
+      <c r="D53" s="6" t="str">
+        <f>VLOOKUP(B53,WB,2,FALSE)&amp;TEXT(C53,"000")</f>
+        <v>6006</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2">
+        <f>A56</f>
+        <v>54</v>
+      </c>
+      <c r="D54" s="6" t="str">
+        <f>VLOOKUP(B54,WB,2,FALSE)&amp;TEXT(C54,"000")</f>
+        <v>5054</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2">
+        <f>A59</f>
+        <v>57</v>
+      </c>
+      <c r="D55" s="6" t="str">
+        <f>VLOOKUP(B55,WB,2,FALSE)&amp;TEXT(C55,"000")</f>
+        <v>5057</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4">
+        <v>999</v>
+      </c>
+      <c r="D56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>6999</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2">
+        <f>A33</f>
+        <v>31</v>
+      </c>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>5031</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2">
+        <f>A58</f>
+        <v>56</v>
+      </c>
+      <c r="D58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>10056</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2">
+        <f>A11</f>
+        <v>9</v>
+      </c>
+      <c r="D59" s="6" t="str">
+        <f t="shared" ref="D59:D60" si="5">VLOOKUP(B59,WB,2,FALSE)&amp;TEXT(C59,"000")</f>
+        <v>1009</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <f>A38</f>
+        <v>36</v>
+      </c>
+      <c r="D60" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>4036</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2">
+        <f>A56</f>
+        <v>54</v>
+      </c>
+      <c r="D61" s="6" t="str">
+        <f>VLOOKUP(B61,WB,2,FALSE)&amp;TEXT(C61,"000")</f>
+        <v>5054</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="6" t="str">
+        <f>VLOOKUP(B62,WB,2,FALSE)&amp;TEXT(C62,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="6" t="str">
+        <f>VLOOKUP(B63,WB,2,FALSE)&amp;TEXT(C63,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="6" t="str">
+        <f>VLOOKUP(B64,WB,2,FALSE)&amp;TEXT(C64,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="6" t="str">
+        <f>VLOOKUP(B65,WB,2,FALSE)&amp;TEXT(C65,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="6" t="str">
+        <f>VLOOKUP(B66,WB,2,FALSE)&amp;TEXT(C66,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="6" t="str">
+        <f>VLOOKUP(B67,WB,2,FALSE)&amp;TEXT(C67,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="6" t="str">
+        <f>VLOOKUP(B68,WB,2,FALSE)&amp;TEXT(C68,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="6" t="str">
+        <f>VLOOKUP(B69,WB,2,FALSE)&amp;TEXT(C69,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="6" t="str">
+        <f>VLOOKUP(B70,WB,2,FALSE)&amp;TEXT(C70,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="6" t="str">
+        <f>VLOOKUP(B71,WB,2,FALSE)&amp;TEXT(C71,"000")</f>
+        <v>000</v>
+      </c>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4">
+        <v>101</v>
+      </c>
+      <c r="D72" s="6" t="str">
+        <f>VLOOKUP(B72,WB,2,FALSE)&amp;TEXT(C72,"000")</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4">
+        <v>101</v>
+      </c>
+      <c r="D73" s="6" t="str">
+        <f>VLOOKUP(B73,WB,2,FALSE)&amp;TEXT(C73,"000")</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4">
+        <v>101</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f>VLOOKUP(B74,WB,2,FALSE)&amp;TEXT(C74,"000")</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4">
+        <v>101</v>
+      </c>
+      <c r="D75" s="6" t="str">
+        <f>VLOOKUP(B75,WB,2,FALSE)&amp;TEXT(C75,"000")</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f>VLOOKUP(B76,WB,2,FALSE)&amp;TEXT(C76,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f>VLOOKUP(B77,WB,2,FALSE)&amp;TEXT(C77,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <f>VLOOKUP(B78,WB,2,FALSE)&amp;TEXT(C78,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6" t="str">
+        <f>VLOOKUP(B79,WB,2,FALSE)&amp;TEXT(C79,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="6" t="str">
+        <f>VLOOKUP(B80,WB,2,FALSE)&amp;TEXT(C80,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f>VLOOKUP(B81,WB,2,FALSE)&amp;TEXT(C81,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="4">
+        <v>101</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <f>VLOOKUP(B82,WB,2,FALSE)&amp;TEXT(C82,"000")</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="4">
+        <v>101</v>
+      </c>
+      <c r="D83" s="6" t="str">
+        <f>VLOOKUP(B83,WB,2,FALSE)&amp;TEXT(C83,"000")</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="4">
+        <v>102</v>
+      </c>
+      <c r="D84" s="6" t="str">
+        <f>VLOOKUP(B84,WB,2,FALSE)&amp;TEXT(C84,"000")</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="4">
+        <v>102</v>
+      </c>
+      <c r="D85" s="6" t="str">
+        <f>VLOOKUP(B85,WB,2,FALSE)&amp;TEXT(C85,"000")</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="4">
+        <v>101</v>
+      </c>
+      <c r="D86" s="6" t="str">
+        <f>VLOOKUP(B86,WB,2,FALSE)&amp;TEXT(C86,"000")</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="4">
+        <v>102</v>
+      </c>
+      <c r="D87" s="6" t="str">
+        <f>VLOOKUP(B87,WB,2,FALSE)&amp;TEXT(C87,"000")</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="6" t="str">
+        <f>VLOOKUP(B88,WB,2,FALSE)&amp;TEXT(C88,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="6" t="str">
+        <f>VLOOKUP(B89,WB,2,FALSE)&amp;TEXT(C89,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="6" t="str">
+        <f>VLOOKUP(B90,WB,2,FALSE)&amp;TEXT(C90,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="6" t="str">
+        <f>VLOOKUP(B91,WB,2,FALSE)&amp;TEXT(C91,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="6" t="str">
+        <f>VLOOKUP(B92,WB,2,FALSE)&amp;TEXT(C92,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <f t="shared" ref="A93:A102" si="6">A92+1</f>
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="6" t="str">
+        <f>VLOOKUP(B93,WB,2,FALSE)&amp;TEXT(C93,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="6" t="str">
+        <f>VLOOKUP(B94,WB,2,FALSE)&amp;TEXT(C94,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="6" t="str">
+        <f>VLOOKUP(B95,WB,2,FALSE)&amp;TEXT(C95,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="6" t="str">
+        <f>VLOOKUP(B96,WB,2,FALSE)&amp;TEXT(C96,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="6" t="str">
+        <f>VLOOKUP(B97,WB,2,FALSE)&amp;TEXT(C97,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="6" t="str">
+        <f>VLOOKUP(B98,WB,2,FALSE)&amp;TEXT(C98,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="6" t="str">
+        <f>VLOOKUP(B99,WB,2,FALSE)&amp;TEXT(C99,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="6" t="str">
+        <f>VLOOKUP(B100,WB,2,FALSE)&amp;TEXT(C100,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="6" t="str">
+        <f>VLOOKUP(B101,WB,2,FALSE)&amp;TEXT(C101,"000")</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="D52" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4">
-        <v>100</v>
-      </c>
-      <c r="D53" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="4">
-        <v>101</v>
-      </c>
-      <c r="D54" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="4">
-        <v>102</v>
-      </c>
-      <c r="D55" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="4">
-        <v>100</v>
-      </c>
-      <c r="D57" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="4">
-        <v>101</v>
-      </c>
-      <c r="D58" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="4">
-        <v>102</v>
-      </c>
-      <c r="D59" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="4">
-        <v>103</v>
-      </c>
-      <c r="D60" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="4">
-        <v>110</v>
-      </c>
-      <c r="D61" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="4">
-        <v>115</v>
-      </c>
-      <c r="D62" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="4">
-        <v>120</v>
-      </c>
-      <c r="D63" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <f t="shared" ref="A68:A82" si="5">A67+1</f>
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="6" t="str">
+        <f>VLOOKUP(B102,WB,2,FALSE)&amp;TEXT(C102,"000")</f>
         <v>000</v>
       </c>
     </row>
